--- a/dougumi/excel/bgm_anime2.xlsx
+++ b/dougumi/excel/bgm_anime2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mucc/Desktop/muccorz.github.io/dougumi/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B47281-76FE-F643-A920-11BC18003F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EC41C8-09EA-914D-8A0F-CD727BA36E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1300" yWindow="520" windowWidth="28040" windowHeight="19260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7557" uniqueCount="2416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7576" uniqueCount="2423">
   <si>
     <t>はたらく細胞BLACK</t>
   </si>
@@ -8165,6 +8165,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>×</t>
     </r>
@@ -8192,6 +8193,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8210,6 +8212,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8228,6 +8231,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8246,6 +8250,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>//</t>
     </r>
@@ -8264,6 +8269,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8282,6 +8288,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>……/ep4</t>
     </r>
@@ -8300,6 +8307,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8318,6 +8326,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8336,6 +8345,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>/</t>
     </r>
@@ -8354,6 +8364,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8372,6 +8383,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>/</t>
     </r>
@@ -8390,6 +8402,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>/</t>
     </r>
@@ -8408,6 +8421,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>gay</t>
     </r>
@@ -8426,6 +8440,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8444,6 +8459,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>/</t>
     </r>
@@ -8462,6 +8478,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8480,6 +8497,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>/</t>
     </r>
@@ -8498,6 +8516,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8516,6 +8535,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8534,6 +8554,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>//</t>
     </r>
@@ -8552,6 +8573,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>……</t>
     </r>
@@ -8570,6 +8592,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8588,6 +8611,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8606,6 +8630,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8624,6 +8649,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>“</t>
     </r>
@@ -8642,6 +8668,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">” </t>
     </r>
@@ -8660,6 +8687,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8678,6 +8706,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8721,12 +8750,90 @@
     <t>后街女孩</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>爱、死亡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机器人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第二季</t>
+    </r>
+  </si>
+  <si>
+    <t>Love, Death &amp; Robots Volume 2</t>
+  </si>
+  <si>
+    <t>2022-06-13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一集拯救观感 夸夸 很浪漫 再就是圣诞节那集还不错 不至于无聊 别的一般//1和7真的是屎出新高度 7的画面就是屎盆子镶金边 写剧本之前做半小时功课也不至于写出这脑瘫剧情 尤其是7看的来气 天天搁这ai倒反天罡毁灭人类 可别操那个皇帝用金锄头还是银锄头的心了 写写吃喝拉撒还差不多 tui</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是王者啊？</t>
+    </r>
+  </si>
+  <si>
+    <t>2022-6-26</t>
+  </si>
+  <si>
+    <t>作品本身不是这帮角色粉没啥可看的//我是粉 看个乐呵还行//给我看得陷入沉思 守约其实 应该是挺高冷的吧//我真服了还说王者荼毒未成年他妈的你挂着官方能不能管管那兰陵王姓兰这事 枣庄王是不是就叫枣兄了 救救高长恭//各方面都很一般 低于预期 甚至不如王者别闹那同人好看</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -8769,6 +8876,27 @@
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF999999"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF555555"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -8902,7 +9030,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -8958,6 +9086,18 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -10122,8 +10262,8 @@
   </sheetPr>
   <dimension ref="A1:JB801"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="107" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I6" zoomScale="107" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -10133,7 +10273,7 @@
     <col min="5" max="5" width="21.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="28.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" style="22" customWidth="1"/>
     <col min="9" max="9" width="17.83203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="189.1640625" style="14" customWidth="1"/>
     <col min="11" max="11" width="14.5" style="14" customWidth="1"/>
@@ -10173,17 +10313,72 @@
       <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:11" ht="20" customHeight="1">
-      <c r="D10" s="3"/>
+      <c r="A10" s="9" t="s">
+        <v>2379</v>
+      </c>
+      <c r="B10" s="1">
+        <v>373904</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>2380</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>2420</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>2382</v>
+      </c>
       <c r="F10" s="4"/>
-      <c r="H10" s="6"/>
-      <c r="J10" s="11"/>
+      <c r="G10" s="15" t="s">
+        <v>2381</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>2421</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>2383</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>2422</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>2384</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="20" customHeight="1">
-      <c r="B11" s="5"/>
-      <c r="D11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="H11" s="6"/>
-      <c r="J11" s="11"/>
+      <c r="A11" s="9" t="s">
+        <v>2379</v>
+      </c>
+      <c r="B11" s="5">
+        <v>284428</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>2380</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>2417</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>2382</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>2416</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>2381</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>2418</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>2383</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>2419</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>2384</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="20" customHeight="1">
       <c r="A12" s="9" t="s">

--- a/dougumi/excel/bgm_anime2.xlsx
+++ b/dougumi/excel/bgm_anime2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mucc/Desktop/muccorz.github.io/dougumi/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EC41C8-09EA-914D-8A0F-CD727BA36E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39240AA-BD19-B846-9447-B55FEED595E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="520" windowWidth="28040" windowHeight="19260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3020" yWindow="540" windowWidth="29940" windowHeight="19320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1 - bgm_anime2" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7576" uniqueCount="2423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7584" uniqueCount="2431">
   <si>
     <t>はたらく細胞BLACK</t>
   </si>
@@ -8828,6 +8828,30 @@
   <si>
     <t>作品本身不是这帮角色粉没啥可看的//我是粉 看个乐呵还行//给我看得陷入沉思 守约其实 应该是挺高冷的吧//我真服了还说王者荼毒未成年他妈的你挂着官方能不能管管那兰陵王姓兰这事 枣庄王是不是就叫枣兄了 救救高长恭//各方面都很一般 低于预期 甚至不如王者别闹那同人好看</t>
   </si>
+  <si>
+    <t>闘牌伝説アカギ 〜闇に舞い降りた天才〜</t>
+  </si>
+  <si>
+    <t>斗牌传说</t>
+  </si>
+  <si>
+    <t>2022-8-8</t>
+  </si>
+  <si>
+    <t>打雀魂被赤木的声音吸引了//不是我吹，男主换个画风就是渚薰//还是得打日麻，看着乐趣翻倍//赌博就是无意义的死，赤木不喜欢赌博，单纯喜欢玩命，实锤戒赌先锋//温血斩瓦西//好看，福本伸行几部我好像都是一口气看完的，这部男主人格魅力格外突出，cv也加成非常多，就算脸长成积木也能感觉到帅bi气逼人，不过看下来感觉还是浦部打雀更厉害（。</t>
+  </si>
+  <si>
+    <t>うらみちお兄さん</t>
+  </si>
+  <si>
+    <t>阴晴不定大哥哥</t>
+  </si>
+  <si>
+    <t>2022-8-11</t>
+  </si>
+  <si>
+    <t>救命，后面有几个地方有点想哭꒦ິ^꒦ິ一本正经的讲大人是如何放弃梦想的，还有木角让前女友的孩子来参加节目，看的真难过，到处都是强颜欢笑的大人在身不由己，泪目了//看完好喜欢，观感越来越好，角色全员讨喜，都是建前的大人不经意间流露的童真呜呜呜呜//梦想劝退论给我看哭了x//思来想去给了9，这种人间真实的精准表现还要笑着总结给观众，痛，太痛了</t>
+  </si>
 </sst>
 </file>
 
@@ -9030,7 +9054,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -9100,6 +9124,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -10262,8 +10287,8 @@
   </sheetPr>
   <dimension ref="A1:JB801"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I6" zoomScale="107" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="65" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -10303,14 +10328,38 @@
       <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:11" ht="20" customHeight="1">
-      <c r="D8" s="3"/>
-      <c r="H8" s="6"/>
-      <c r="J8" s="11"/>
+      <c r="B8" s="1">
+        <v>292832</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>2427</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>2428</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>2429</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>2430</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="20" customHeight="1">
-      <c r="D9" s="3"/>
-      <c r="H9" s="6"/>
-      <c r="J9" s="11"/>
+      <c r="B9" s="1">
+        <v>2059</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>2423</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>2424</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>2425</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>2426</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="20" customHeight="1">
       <c r="A10" s="9" t="s">
